--- a/Naslovi_info.xlsx
+++ b/Naslovi_info.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damird/Osebno/IB_to_eDavki/2020/eToro/ddeze-etoro-edavki/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7C20C4-5415-DC4C-BCB3-549FE05853DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Info" sheetId="1" r:id="rId4"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="550">
   <si>
     <t>Symbol</t>
   </si>
@@ -1418,50 +1427,313 @@
   </si>
   <si>
     <t>Bethesda, Maryland, United States</t>
+  </si>
+  <si>
+    <t>TXN</t>
+  </si>
+  <si>
+    <t>ULVR.L</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>HEN3.DE</t>
+  </si>
+  <si>
+    <t>MPW</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>HL.L</t>
+  </si>
+  <si>
+    <t>TIP</t>
+  </si>
+  <si>
+    <t>MCHP</t>
+  </si>
+  <si>
+    <t>ITW</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>XLV</t>
+  </si>
+  <si>
+    <t>AGN</t>
+  </si>
+  <si>
+    <t>NXPI</t>
+  </si>
+  <si>
+    <t>BPY</t>
+  </si>
+  <si>
+    <t>GRMN</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
+    <t>CME</t>
+  </si>
+  <si>
+    <t>Texas Instruments Incorporated</t>
+  </si>
+  <si>
+    <t>12500 TI Boulevard Dallas, TX 75243 United States</t>
+  </si>
+  <si>
+    <t>US8825081040</t>
+  </si>
+  <si>
+    <t>Unilever PLC</t>
+  </si>
+  <si>
+    <t>Unilever House 100 Victoria Embankment London EC4Y 0DY United Kingdom</t>
+  </si>
+  <si>
+    <t>GB00B10RZP78</t>
+  </si>
+  <si>
+    <t>Verizon Communications Inc.</t>
+  </si>
+  <si>
+    <t>1095 Avenue of the Americas, New York, NY 10036</t>
+  </si>
+  <si>
+    <t>US92343V1044</t>
+  </si>
+  <si>
+    <t>Henkel AG &amp; Co. KGaA</t>
+  </si>
+  <si>
+    <t>DE0006048408</t>
+  </si>
+  <si>
+    <t>Henkelstrasse 67, Düsseldorf 40589, Germany</t>
+  </si>
+  <si>
+    <t>Medical Properties Trust, Inc.</t>
+  </si>
+  <si>
+    <t>1000 Urban Center Drive, Suite 501, Birmingham, AL 35242, United States</t>
+  </si>
+  <si>
+    <t>US58463J3041</t>
+  </si>
+  <si>
+    <t>The Boeing Company</t>
+  </si>
+  <si>
+    <t>100 North Riverside Plaza, Chicago, IL 60606-1596, United States</t>
+  </si>
+  <si>
+    <t>US0970231058</t>
+  </si>
+  <si>
+    <t>Hargreaves Lansdown plc</t>
+  </si>
+  <si>
+    <t>One College Square South, Anchor Road, Bristol BS1 5HL, United Kingdom</t>
+  </si>
+  <si>
+    <t>GB00B1VZ0M25</t>
+  </si>
+  <si>
+    <t>iShares TIPS Bond ETF</t>
+  </si>
+  <si>
+    <t>US4642871762</t>
+  </si>
+  <si>
+    <t>iShares</t>
+  </si>
+  <si>
+    <t>Microchip Technology Incorporated</t>
+  </si>
+  <si>
+    <t>2355 West Chandler Boulevard, Chandler, AZ 85224-6199, United States</t>
+  </si>
+  <si>
+    <t>US5950171042</t>
+  </si>
+  <si>
+    <t>Illinois Tool Works Inc.</t>
+  </si>
+  <si>
+    <t>155 Harlem Avenue, Glenview, IL 60025-4075, United States</t>
+  </si>
+  <si>
+    <t>US4523081093</t>
+  </si>
+  <si>
+    <t>iShares 20+ Year Treasury Bond ETF</t>
+  </si>
+  <si>
+    <t>US4642874329</t>
+  </si>
+  <si>
+    <t>The Kroger Co.</t>
+  </si>
+  <si>
+    <t>1014 Vine Street, Cincinnati, OH 45202, United States</t>
+  </si>
+  <si>
+    <t>US501044DN88</t>
+  </si>
+  <si>
+    <t>Applied Materials, Inc.</t>
+  </si>
+  <si>
+    <t>3050 Bowers Avenue, PO Box 58039, Santa Clara, CA 95052-3299, United States</t>
+  </si>
+  <si>
+    <t>US0382221051</t>
+  </si>
+  <si>
+    <t>Health Care Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>US81369Y2090</t>
+  </si>
+  <si>
+    <t>SPDR State Street Global Advisors</t>
+  </si>
+  <si>
+    <t>NXP Semiconductors N.V.</t>
+  </si>
+  <si>
+    <t>High Tech Campus 60, Eindhoven 5656 AG, Netherlands</t>
+  </si>
+  <si>
+    <t>NL0009538784</t>
+  </si>
+  <si>
+    <t>Brookfield Property Partners L.P.</t>
+  </si>
+  <si>
+    <t>73 Front Street, 5th Floor, Hamilton HM 12, Bermuda</t>
+  </si>
+  <si>
+    <t>BMG162491077</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Garmin Ltd.</t>
+  </si>
+  <si>
+    <t>Mühlentalstrasse 2, Schaffhausen 8200, Switzerland</t>
+  </si>
+  <si>
+    <t>CH0114405324</t>
+  </si>
+  <si>
+    <t>Activision Blizzard, Inc.</t>
+  </si>
+  <si>
+    <t>3100 Ocean Park Boulevard, Santa Monica, CA 90405, United States</t>
+  </si>
+  <si>
+    <t>US00507V1098</t>
+  </si>
+  <si>
+    <t>CME Group Inc.</t>
+  </si>
+  <si>
+    <t>20 South Wacker Drive, Chicago, IL 60606, United States</t>
+  </si>
+  <si>
+    <t>US12572Q1058</t>
+  </si>
+  <si>
+    <t>Algernon Pharmaceuticals Inc.</t>
+  </si>
+  <si>
+    <t>700 West Pender Street, Suite 915, Vancouver, BC V6C 1G8, Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CA01559R1038</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="11">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Bwhaasgrotesk-55roman-web"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1469,112 +1741,103 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="5"/>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8D8D8"/>
-          <bgColor rgb="FFD8D8D8"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Info-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Info-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E117" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E137">
   <tableColumns count="5">
-    <tableColumn name="Symbol" id="1"/>
-    <tableColumn name="ISIN" id="2"/>
-    <tableColumn name="Name" id="3"/>
-    <tableColumn name="Address" id="4"/>
-    <tableColumn name="CountryCode" id="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Address"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CountryCode"/>
   </tableColumns>
-  <tableStyleInfo name="Info-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Info-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1764,28 +2027,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.5"/>
-    <col customWidth="1" min="2" max="2" width="15.0"/>
-    <col customWidth="1" min="3" max="3" width="35.0"/>
-    <col customWidth="1" min="4" max="4" width="103.13"/>
-    <col customWidth="1" min="5" max="5" width="12.75"/>
-    <col customWidth="1" min="6" max="26" width="7.63"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="103.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +2065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1819,7 +2082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1836,7 +2099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1853,7 +2116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1870,7 +2133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1887,7 +2150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1904,7 +2167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1921,7 +2184,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1938,7 +2201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1955,7 +2218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1972,7 +2235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1989,7 +2252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -2006,7 +2269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2023,7 +2286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -2040,7 +2303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
@@ -2057,7 +2320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
@@ -2074,7 +2337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
@@ -2091,7 +2354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
@@ -2108,7 +2371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
@@ -2125,7 +2388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
@@ -2142,7 +2405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
@@ -2159,7 +2422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -2176,7 +2439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>96</v>
       </c>
@@ -2193,7 +2456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>100</v>
       </c>
@@ -2210,7 +2473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>104</v>
       </c>
@@ -2227,7 +2490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>108</v>
       </c>
@@ -2244,7 +2507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>112</v>
       </c>
@@ -2261,7 +2524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>116</v>
       </c>
@@ -2278,7 +2541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>120</v>
       </c>
@@ -2295,7 +2558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>124</v>
       </c>
@@ -2312,7 +2575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>128</v>
       </c>
@@ -2329,7 +2592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>132</v>
       </c>
@@ -2346,7 +2609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>136</v>
       </c>
@@ -2363,7 +2626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>140</v>
       </c>
@@ -2380,7 +2643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>144</v>
       </c>
@@ -2397,7 +2660,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>149</v>
       </c>
@@ -2414,7 +2677,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>153</v>
       </c>
@@ -2431,7 +2694,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>157</v>
       </c>
@@ -2448,7 +2711,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>162</v>
       </c>
@@ -2465,7 +2728,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>167</v>
       </c>
@@ -2482,7 +2745,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>171</v>
       </c>
@@ -2499,7 +2762,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>175</v>
       </c>
@@ -2516,7 +2779,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>178</v>
       </c>
@@ -2533,7 +2796,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>183</v>
       </c>
@@ -2550,7 +2813,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>188</v>
       </c>
@@ -2567,7 +2830,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>192</v>
       </c>
@@ -2584,7 +2847,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>196</v>
       </c>
@@ -2601,7 +2864,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>200</v>
       </c>
@@ -2618,7 +2881,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>204</v>
       </c>
@@ -2635,7 +2898,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -2652,7 +2915,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>212</v>
       </c>
@@ -2669,7 +2932,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>216</v>
       </c>
@@ -2686,7 +2949,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>220</v>
       </c>
@@ -2703,7 +2966,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>224</v>
       </c>
@@ -2720,7 +2983,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>227</v>
       </c>
@@ -2737,7 +3000,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>231</v>
       </c>
@@ -2754,7 +3017,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>235</v>
       </c>
@@ -2771,7 +3034,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>239</v>
       </c>
@@ -2788,7 +3051,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>243</v>
       </c>
@@ -2805,7 +3068,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>247</v>
       </c>
@@ -2822,7 +3085,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>251</v>
       </c>
@@ -2839,7 +3102,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>254</v>
       </c>
@@ -2856,7 +3119,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>258</v>
       </c>
@@ -2873,7 +3136,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>262</v>
       </c>
@@ -2890,7 +3153,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>266</v>
       </c>
@@ -2907,7 +3170,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>270</v>
       </c>
@@ -2924,7 +3187,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>274</v>
       </c>
@@ -2941,7 +3204,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>278</v>
       </c>
@@ -2958,7 +3221,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>282</v>
       </c>
@@ -2975,7 +3238,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>286</v>
       </c>
@@ -2992,7 +3255,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>290</v>
       </c>
@@ -3009,7 +3272,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>294</v>
       </c>
@@ -3026,7 +3289,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>297</v>
       </c>
@@ -3043,7 +3306,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>299</v>
       </c>
@@ -3060,7 +3323,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>303</v>
       </c>
@@ -3077,7 +3340,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>307</v>
       </c>
@@ -3094,7 +3357,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>310</v>
       </c>
@@ -3111,7 +3374,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>314</v>
       </c>
@@ -3128,7 +3391,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>318</v>
       </c>
@@ -3145,7 +3408,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>321</v>
       </c>
@@ -3162,7 +3425,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>325</v>
       </c>
@@ -3179,7 +3442,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>329</v>
       </c>
@@ -3196,7 +3459,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>333</v>
       </c>
@@ -3213,7 +3476,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>337</v>
       </c>
@@ -3230,7 +3493,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>340</v>
       </c>
@@ -3247,7 +3510,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>344</v>
       </c>
@@ -3264,7 +3527,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>348</v>
       </c>
@@ -3281,7 +3544,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>352</v>
       </c>
@@ -3298,7 +3561,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>356</v>
       </c>
@@ -3315,7 +3578,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>359</v>
       </c>
@@ -3332,7 +3595,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>363</v>
       </c>
@@ -3349,7 +3612,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1">
       <c r="A93" s="6" t="s">
         <v>367</v>
       </c>
@@ -3366,7 +3629,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1">
       <c r="A94" s="6" t="s">
         <v>372</v>
       </c>
@@ -3383,7 +3646,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1">
       <c r="A95" s="6" t="s">
         <v>377</v>
       </c>
@@ -3400,7 +3663,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1">
       <c r="A96" s="6" t="s">
         <v>381</v>
       </c>
@@ -3417,7 +3680,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1">
       <c r="A97" s="6" t="s">
         <v>385</v>
       </c>
@@ -3434,7 +3697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1">
       <c r="A98" s="6" t="s">
         <v>389</v>
       </c>
@@ -3451,7 +3714,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1">
       <c r="A99" s="6" t="s">
         <v>393</v>
       </c>
@@ -3468,7 +3731,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1">
       <c r="A100" s="6" t="s">
         <v>397</v>
       </c>
@@ -3485,7 +3748,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1">
       <c r="A101" s="6" t="s">
         <v>401</v>
       </c>
@@ -3502,7 +3765,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1">
       <c r="A102" s="6" t="s">
         <v>405</v>
       </c>
@@ -3519,7 +3782,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1">
       <c r="A103" s="6" t="s">
         <v>409</v>
       </c>
@@ -3536,7 +3799,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>413</v>
       </c>
@@ -3553,7 +3816,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1">
       <c r="A105" s="6" t="s">
         <v>417</v>
       </c>
@@ -3570,7 +3833,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:5" ht="15.75" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>421</v>
       </c>
@@ -3587,7 +3850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1">
       <c r="A107" s="6" t="s">
         <v>425</v>
       </c>
@@ -3604,7 +3867,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1">
       <c r="A108" s="6" t="s">
         <v>429</v>
       </c>
@@ -3621,7 +3884,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1">
       <c r="A109" s="9" t="s">
         <v>433</v>
       </c>
@@ -3638,7 +3901,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1">
       <c r="A110" s="6" t="s">
         <v>437</v>
       </c>
@@ -3655,7 +3918,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1">
       <c r="A111" s="6" t="s">
         <v>441</v>
       </c>
@@ -3672,7 +3935,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1">
       <c r="A112" s="8" t="s">
         <v>445</v>
       </c>
@@ -3689,7 +3952,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1">
       <c r="A113" s="6" t="s">
         <v>450</v>
       </c>
@@ -3706,7 +3969,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1">
       <c r="A114" s="6" t="s">
         <v>453</v>
       </c>
@@ -3723,7 +3986,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1">
       <c r="A115" s="6" t="s">
         <v>457</v>
       </c>
@@ -3740,7 +4003,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>461</v>
       </c>
@@ -3757,7 +4020,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1">
       <c r="A117" s="6" t="s">
         <v>465</v>
       </c>
@@ -3767,40 +4030,360 @@
       <c r="C117" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="10" t="s">
         <v>468</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="118" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A118" t="s">
+        <v>469</v>
+      </c>
+      <c r="B118" t="s">
+        <v>491</v>
+      </c>
+      <c r="C118" t="s">
+        <v>489</v>
+      </c>
+      <c r="D118" t="s">
+        <v>490</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A119" t="s">
+        <v>470</v>
+      </c>
+      <c r="B119" t="s">
+        <v>494</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D119" t="s">
+        <v>493</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A120" t="s">
+        <v>471</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A122" t="s">
+        <v>473</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A123" t="s">
+        <v>474</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A124" t="s">
+        <v>475</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A125" t="s">
+        <v>476</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A126" t="s">
+        <v>477</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A127" t="s">
+        <v>478</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A128" t="s">
+        <v>479</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A129" t="s">
+        <v>480</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A130" t="s">
+        <v>481</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A131" t="s">
+        <v>482</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A132" t="s">
+        <v>484</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A133" t="s">
+        <v>485</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A134" t="s">
+        <v>486</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A135" t="s">
+        <v>487</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A136" t="s">
+        <v>488</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A137" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="140" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="145" ht="15.75" customHeight="1"/>
     <row r="146" ht="15.75" customHeight="1"/>
     <row r="147" ht="15.75" customHeight="1"/>
@@ -4619,22 +5202,18 @@
     <row r="960" ht="15.75" customHeight="1"/>
     <row r="961" ht="15.75" customHeight="1"/>
     <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A104"/>
-    <hyperlink r:id="rId2" ref="A106"/>
-    <hyperlink r:id="rId3" ref="A109"/>
-    <hyperlink r:id="rId4" ref="A112"/>
-    <hyperlink r:id="rId5" ref="A116"/>
+    <hyperlink ref="A104" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A106" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A109" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A112" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A116" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Naslovi_info.xlsx
+++ b/Naslovi_info.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damird/Osebno/IB_to_eDavki/2020/eToro/ddeze-etoro-edavki/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki.git\etoro-edavki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7C20C4-5415-DC4C-BCB3-549FE05853DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="51195" windowHeight="28305"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="548">
   <si>
     <t>Symbol</t>
   </si>
@@ -1282,9 +1281,6 @@
     <t>SPDR Bloomberg Barclays High Y</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>00257.HK</t>
   </si>
   <si>
@@ -1558,9 +1554,6 @@
     <t>US4642871762</t>
   </si>
   <si>
-    <t>iShares</t>
-  </si>
-  <si>
     <t>Microchip Technology Incorporated</t>
   </si>
   <si>
@@ -1609,9 +1602,6 @@
     <t>US81369Y2090</t>
   </si>
   <si>
-    <t>SPDR State Street Global Advisors</t>
-  </si>
-  <si>
     <t>NXP Semiconductors N.V.</t>
   </si>
   <si>
@@ -1670,69 +1660,20 @@
   </si>
   <si>
     <t>CA01559R1038</t>
+  </si>
+  <si>
+    <t>State Street Bank and Trust Company One Lincoln Center Boston, MA 02211 USA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Bwhaasgrotesk-55roman-web"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1756,30 +1697,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1806,10 +1737,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Info-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    <tableStyle name="Info-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1824,13 +1755,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E137" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Address"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CountryCode"/>
+    <tableColumn id="1" name="Symbol" dataCellStyle="Navadno"/>
+    <tableColumn id="2" name="ISIN" dataCellStyle="Navadno"/>
+    <tableColumn id="3" name="Name" dataCellStyle="Navadno"/>
+    <tableColumn id="4" name="Address" dataCellStyle="Navadno"/>
+    <tableColumn id="5" name="CountryCode" dataDxfId="0" dataCellStyle="Navadno"/>
   </tableColumns>
   <tableStyleInfo name="Info-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2033,22 +1964,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="103.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="26" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="103.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="12.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2061,3159 +1996,3159 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="5" t="s">
+      <c r="E42" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="E47" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="E50" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="2" t="s">
+      <c r="E51" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="2" t="s">
+      <c r="E55" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="2" t="s">
+      <c r="E56" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="2" t="s">
+      <c r="E57" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="2" t="s">
+      <c r="E58" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A60" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A61" s="2" t="s">
+      <c r="E60" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A62" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A63" s="2" t="s">
+      <c r="E62" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A64" s="2" t="s">
+      <c r="E63" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A65" s="2" t="s">
+      <c r="E64" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A67" s="2" t="s">
+      <c r="E66" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A68" s="2" t="s">
+      <c r="E67" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A69" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A70" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A71" s="2" t="s">
+      <c r="E70" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A72" s="2" t="s">
+      <c r="E71" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A77" s="2" t="s">
+      <c r="E76" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A78" s="2" t="s">
+      <c r="E77" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A79" s="2" t="s">
+      <c r="E78" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A80" s="2" t="s">
+      <c r="E79" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A81" s="2" t="s">
+      <c r="E80" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A82" s="2" t="s">
+      <c r="E81" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A83" s="2" t="s">
+      <c r="E82" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A85" s="2" t="s">
+      <c r="E84" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A86" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A87" s="2" t="s">
+      <c r="E86" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A88" s="2" t="s">
+      <c r="E87" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A89" s="2" t="s">
+      <c r="E88" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A90" s="2" t="s">
+      <c r="E89" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A91" s="2" t="s">
+      <c r="E90" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A92" s="2" t="s">
+      <c r="E91" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A93" s="6" t="s">
+      <c r="E92" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A95" s="6" t="s">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A96" s="6" t="s">
+      <c r="E95" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A97" s="6" t="s">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A98" s="6" t="s">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A99" s="6" t="s">
+      <c r="E98" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A100" s="6" t="s">
+      <c r="E99" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A101" s="6" t="s">
+      <c r="E100" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A102" s="6" t="s">
+      <c r="E101" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E102" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A103" s="6" t="s">
+      <c r="E102" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E103" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A104" s="8" t="s">
+      <c r="E103" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A105" s="6" t="s">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E105" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A106" s="8" t="s">
+      <c r="B106" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="C106" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="E106" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E106" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A107" s="6" t="s">
+      <c r="B107" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="C107" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="D107" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="E107" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E107" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A108" s="6" t="s">
+      <c r="B108" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="C108" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="D108" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="E108" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E108" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A109" s="9" t="s">
+      <c r="B109" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="C109" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="D109" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="E109" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="B110" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A110" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A111" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A112" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A113" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A114" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A115" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E115" s="7" t="s">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A116" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A117" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A118" t="s">
-        <v>469</v>
-      </c>
-      <c r="B118" t="s">
-        <v>491</v>
-      </c>
-      <c r="C118" t="s">
-        <v>489</v>
-      </c>
-      <c r="D118" t="s">
-        <v>490</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A119" t="s">
-        <v>470</v>
-      </c>
-      <c r="B119" t="s">
-        <v>494</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="D119" t="s">
-        <v>493</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A120" t="s">
-        <v>471</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A121" t="s">
-        <v>472</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A122" t="s">
-        <v>473</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A123" t="s">
-        <v>474</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A124" t="s">
-        <v>475</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A125" t="s">
-        <v>476</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A126" t="s">
-        <v>477</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A127" t="s">
-        <v>478</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A128" t="s">
-        <v>479</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A129" t="s">
-        <v>480</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A130" t="s">
-        <v>481</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A131" t="s">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A132" t="s">
-        <v>484</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A133" t="s">
-        <v>485</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A134" t="s">
-        <v>486</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A135" t="s">
-        <v>487</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A136" t="s">
-        <v>488</v>
-      </c>
-      <c r="B136" s="11" t="s">
+      <c r="B137" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C136" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A137" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A104" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A106" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A109" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A112" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A116" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A104" r:id="rId1"/>
+    <hyperlink ref="A106" r:id="rId2"/>
+    <hyperlink ref="A109" r:id="rId3"/>
+    <hyperlink ref="A112" r:id="rId4"/>
+    <hyperlink ref="A116" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>